--- a/Ulta Beauty DCF 10-21-22.xlsx
+++ b/Ulta Beauty DCF 10-21-22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFF21323-EF73-874F-8203-6A7D0E4E1FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FBD320-653B-8A4E-9CD0-B2605BD7528E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23820" yWindow="460" windowWidth="27380" windowHeight="26980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="520" windowWidth="27380" windowHeight="26980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -326,15 +326,9 @@
     <t>Terminal Value</t>
   </si>
   <si>
-    <t>5 Year Revenue CAGR</t>
-  </si>
-  <si>
     <t>FCF Growth YoY %</t>
   </si>
   <si>
-    <t>5 Year FCF CAGR</t>
-  </si>
-  <si>
     <t>Cost of Debt Calculation</t>
   </si>
   <si>
@@ -422,9 +416,6 @@
     <t>Shares Outstanding</t>
   </si>
   <si>
-    <t>Price Per Share</t>
-  </si>
-  <si>
     <t>Current Price</t>
   </si>
   <si>
@@ -432,6 +423,15 @@
   </si>
   <si>
     <t>Upside / Downside</t>
+  </si>
+  <si>
+    <t>10 Year FCF CAGR</t>
+  </si>
+  <si>
+    <t>10 Year Revenue CAGR</t>
+  </si>
+  <si>
+    <t>Fair Value Per Share</t>
   </si>
 </sst>
 </file>
@@ -1071,10 +1071,10 @@
   <dimension ref="A1:AC111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X119" sqref="X119"/>
+      <selection pane="bottomRight" activeCell="X104" sqref="X104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1228,7 +1228,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="40" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>8630889000</v>
       </c>
       <c r="Y3" s="22" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:29" s="18" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -1384,8 +1384,8 @@
       <c r="W4" s="17"/>
       <c r="X4" s="17"/>
       <c r="Y4" s="19">
-        <f>(U4+T4+S4+R4+Q4)/5</f>
-        <v>0.13789881479537994</v>
+        <f>(U4+T4+S4+R4+Q4+P4+O4+N4+M4+L4)/10</f>
+        <v>0.18038454754338587</v>
       </c>
       <c r="AC4" s="19"/>
     </row>
@@ -3209,7 +3209,7 @@
         <v>91</v>
       </c>
       <c r="Y32" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Z32" s="29"/>
       <c r="AA32" s="29"/>
@@ -3279,7 +3279,7 @@
         <v>431560000</v>
       </c>
       <c r="Y33" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Z33" s="31">
         <f>U15</f>
@@ -3352,7 +3352,7 @@
         <v>92</v>
       </c>
       <c r="Y34" s="30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Z34" s="31">
         <f>U51</f>
@@ -3425,7 +3425,7 @@
         <v>431560000</v>
       </c>
       <c r="Y35" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Z35" s="31">
         <f>U56</f>
@@ -3498,7 +3498,7 @@
         <v>233682000</v>
       </c>
       <c r="Y36" s="32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Z36" s="33">
         <f>Z33/(Z34+Z35)</f>
@@ -3571,7 +3571,7 @@
         <v>1499218000</v>
       </c>
       <c r="Y37" s="30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Z37" s="31">
         <f>U24</f>
@@ -3717,7 +3717,7 @@
         <v>2281183000</v>
       </c>
       <c r="Y39" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Z39" s="33">
         <f>Z37/Z38</f>
@@ -3790,7 +3790,7 @@
         <v>2396732000</v>
       </c>
       <c r="Y40" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Z40" s="33">
         <f>Z36*(1-Z39)</f>
@@ -3931,7 +3931,7 @@
         <v>1538000</v>
       </c>
       <c r="Y42" s="28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Z42" s="29"/>
       <c r="AA42" s="29"/>
@@ -4001,7 +4001,7 @@
         <v>12408000</v>
       </c>
       <c r="Y43" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Z43" s="34">
         <v>4.2209999999999998E-2</v>
@@ -4073,7 +4073,7 @@
         <v>92</v>
       </c>
       <c r="Y44" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Z44" s="29">
         <v>1.35</v>
@@ -4145,7 +4145,7 @@
         <v>92</v>
       </c>
       <c r="Y45" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Z45" s="34">
         <v>8.5099999999999995E-2</v>
@@ -4217,7 +4217,7 @@
         <v>74056000</v>
       </c>
       <c r="Y46" s="32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Z46" s="35">
         <f>(Z43)+((Z44)*(Z45-Z43))</f>
@@ -4358,13 +4358,13 @@
         <v>92</v>
       </c>
       <c r="Y48" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z48" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA48" s="37" t="s">
         <v>113</v>
-      </c>
-      <c r="Z48" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA48" s="37" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -4432,7 +4432,7 @@
         <v>4764379000</v>
       </c>
       <c r="Y49" s="30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Z49" s="31">
         <f>Z34+Z35</f>
@@ -4443,7 +4443,7 @@
         <v>8.6076765450047527E-2</v>
       </c>
       <c r="AB49" s="39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -4511,7 +4511,7 @@
         <v>552730000</v>
       </c>
       <c r="Y50" s="30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Z50" s="31">
         <v>19608000000</v>
@@ -4521,7 +4521,7 @@
         <v>0.9139232345499525</v>
       </c>
       <c r="AB50" s="39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -4589,7 +4589,7 @@
         <v>274118000</v>
       </c>
       <c r="Y51" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Z51" s="31">
         <f>Z49+Z50</f>
@@ -4730,7 +4730,7 @@
         <v>353579000</v>
       </c>
       <c r="Y53" s="40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Z53" s="29"/>
       <c r="AA53" s="29"/>
@@ -4800,7 +4800,7 @@
         <v>377583000</v>
       </c>
       <c r="Y54" s="32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Z54" s="33">
         <f>(AA49*Z36)+(AA50*Z46)</f>
@@ -7692,12 +7692,12 @@
         <v>23853721914.111012</v>
       </c>
       <c r="Y98" s="22" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:29" s="25" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="16" t="e">
         <f>(B98/A98)-1</f>
@@ -7752,7 +7752,7 @@
         <v>0.45057570722018458</v>
       </c>
       <c r="O99" s="17">
-        <f t="shared" ref="O99:Y99" si="3">(O98/N98)-1</f>
+        <f t="shared" ref="O99:U99" si="3">(O98/N98)-1</f>
         <v>-0.48004067107269954</v>
       </c>
       <c r="P99" s="17">
@@ -7789,8 +7789,8 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="Y99" s="19">
-        <f>(U99+T99+S99+R99+Q99)/5</f>
-        <v>0.32123778447945195</v>
+        <f>(U99+T99+S99+R99+Q99+P99+O99+N99+M99+L99)/10</f>
+        <v>0.45420148814066141</v>
       </c>
       <c r="Z99" s="26"/>
       <c r="AA99" s="26"/>
@@ -7799,33 +7799,33 @@
     </row>
     <row r="100" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A100" s="42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="V100" s="1">
-        <f>V98/(1+$AD$54)^V97</f>
-        <v>1170942960</v>
+        <f>V98/(1+$Z$54)^V97</f>
+        <v>1072865153.1898715</v>
       </c>
       <c r="W100" s="1">
-        <f>W98/(1+$AD$54)^W97</f>
-        <v>1545644707.2</v>
+        <f>W98/(1+$Z$54)^W97</f>
+        <v>1297563051.8726952</v>
       </c>
       <c r="X100" s="1">
-        <f>X98/(1+$AD$54)^X97</f>
-        <v>23853721914.111012</v>
+        <f>X98/(1+$Z$54)^X97</f>
+        <v>20025111890.989998</v>
       </c>
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.2">
       <c r="U102" s="46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="V102" s="46">
         <f>SUM(V100:X100)</f>
-        <v>26570309581.311012</v>
+        <v>22395540096.052567</v>
       </c>
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.2">
       <c r="U103" s="46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="V103" s="46">
         <f>Z49</f>
@@ -7834,7 +7834,7 @@
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.2">
       <c r="U104" s="47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V104" s="47">
         <f>U35</f>
@@ -7843,16 +7843,16 @@
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.2">
       <c r="U105" s="48" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="V105" s="48">
         <f>V102-V103+V104</f>
-        <v>25155113581.311012</v>
+        <v>20980344096.052567</v>
       </c>
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.2">
       <c r="U106" s="47" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="V106" s="47">
         <v>51220000</v>
@@ -7860,16 +7860,16 @@
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.2">
       <c r="U107" s="49" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="V107" s="50">
         <f>V105/V106</f>
-        <v>491.118968787798</v>
+        <v>409.61234080539958</v>
       </c>
     </row>
     <row r="108" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="U108" s="51" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V108" s="52">
         <v>382.81</v>
@@ -7881,7 +7881,7 @@
     </row>
     <row r="110" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="U110" s="43" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="V110" s="44" t="str">
         <f>IF(V107&gt;V108, "BUY", "SELL")</f>
@@ -7890,11 +7890,11 @@
     </row>
     <row r="111" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="U111" s="43" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="V111" s="45">
         <f>(V107/V108)-1</f>
-        <v>0.28293139883440355</v>
+        <v>7.001473526135582E-2</v>
       </c>
     </row>
   </sheetData>
